--- a/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>9.776992729563638</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.004638952912022765</v>
+        <v>0.004638952912033867</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.560690628623697</v>
+        <v>6.282522309392761</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.3556363983219</v>
+        <v>5.452962479008372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.828024222564992</v>
+        <v>-4.487250523931879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.43179052264997</v>
+        <v>13.7335947761354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.493649548627187</v>
+        <v>3.419792639142524</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.30003508927203</v>
+        <v>-5.454368160559852</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.43527258603374</v>
+        <v>11.51363547662243</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.013462071696309</v>
+        <v>6.042941000232589</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.602348421207648</v>
+        <v>-3.477957083016886</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.28643067467798</v>
+        <v>16.92454084630864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.45986703575677</v>
+        <v>16.14608869747644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.898986632816106</v>
+        <v>5.891759230755184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.13175982149578</v>
+        <v>23.83567602196178</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.95944932823688</v>
+        <v>14.15334478651588</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.588253988635592</v>
+        <v>3.652578925600335</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.05745494872913</v>
+        <v>18.89376769419725</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.53109197608969</v>
+        <v>14.11710847813682</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.512003783328815</v>
+        <v>3.93877589864377</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2281639971363591</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.0001082584459466716</v>
+        <v>0.0001082584459469307</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1586312764429271</v>
+        <v>0.1530882518796526</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1329016488242207</v>
+        <v>0.133630298194532</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1187256003357992</v>
+        <v>-0.1102323639955055</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2653373364176678</v>
+        <v>0.2755019378055761</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0683435802708833</v>
+        <v>0.06856470383292003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.105283637702099</v>
+        <v>-0.1104422155285513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2569369162651262</v>
+        <v>0.2530959974352605</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1310250473103644</v>
+        <v>0.1343804324936579</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08054963415697512</v>
+        <v>-0.07835856551082405</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4847186322565327</v>
+        <v>0.4836549103479887</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4578226713020498</v>
+        <v>0.4513661153850871</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1706267613639225</v>
+        <v>0.1686644049248443</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5420594874833619</v>
+        <v>0.5218738016025152</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3090615594100095</v>
+        <v>0.3118473011388497</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1044499901339137</v>
+        <v>0.08040326525063368</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4648172868950007</v>
+        <v>0.4653449138457647</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3306143881184233</v>
+        <v>0.3442691506516709</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.08636622878156988</v>
+        <v>0.09784632753415026</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.441392482832822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.206799634666034</v>
+        <v>-1.206799634666028</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.601870256702054</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.04537839986323331</v>
+        <v>0.069385293447929</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.257200881171666</v>
+        <v>-1.05820106456038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.362824282807715</v>
+        <v>-5.866259665304383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.917247039143195</v>
+        <v>-2.77541976626359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.378385964026231</v>
+        <v>-7.06839066838872</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.07437430504886</v>
+        <v>-11.869224538313</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1830049932977249</v>
+        <v>-0.1827617635511007</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.853564384311647</v>
+        <v>-2.514830944186931</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.432647213686075</v>
+        <v>-7.516952968295822</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.131699997779354</v>
+        <v>9.364907996228098</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.037522578823447</v>
+        <v>8.009185250096754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.228741897168947</v>
+        <v>3.587245443583476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.861463616535922</v>
+        <v>6.093713001526817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.937418005480012</v>
+        <v>1.961286961721101</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.079362724363117</v>
+        <v>-3.189990723992553</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.375357155473766</v>
+        <v>6.55432889483742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.870108227603233</v>
+        <v>4.020419235938304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.145033141879735</v>
+        <v>-0.9294023482226996</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.0799020841453601</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02801941552342243</v>
+        <v>-0.0280194155234223</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02837996119032948</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.000540562789987438</v>
+        <v>0.00349482861713913</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02869200928903768</v>
+        <v>-0.02402264297666955</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1389134500334656</v>
+        <v>-0.1303748674849471</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04988423820063734</v>
+        <v>-0.04760149709301997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1248458798171702</v>
+        <v>-0.1181910266290568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1879633694060656</v>
+        <v>-0.2002336448070026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.003655107220474301</v>
+        <v>-0.002723478796688916</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05485525963327492</v>
+        <v>-0.04873471420391409</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1429679589517842</v>
+        <v>-0.1471658926317795</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2258151075647827</v>
+        <v>0.229058012376134</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1958391333315722</v>
+        <v>0.1975061422129724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08016715443023265</v>
+        <v>0.08707570124725593</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1087977960172712</v>
+        <v>0.1124934852056516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03551712085360785</v>
+        <v>0.03593476705848263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05593412866160186</v>
+        <v>-0.06014392678105286</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1326587165185734</v>
+        <v>0.1368306235280076</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08189834705488504</v>
+        <v>0.08337160953342238</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02287162632339002</v>
+        <v>-0.01943683198103289</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.010636068056331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.478749101628425</v>
+        <v>-3.47874910162842</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.473965787530121</v>
@@ -1092,7 +1092,7 @@
         <v>-3.444849708904463</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.915135620540372</v>
+        <v>-3.915135620540361</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.386344197787709</v>
+        <v>-3.644279569600198</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.74450893768032</v>
+        <v>-6.495636717889856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.890982251505953</v>
+        <v>-8.610887130986583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.558308722704884</v>
+        <v>-0.7894152321003705</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.36815817975534</v>
+        <v>-11.39945149480076</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.219444289752317</v>
+        <v>-9.761166825908353</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6183576974851707</v>
+        <v>-0.8812882176256044</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.613898381247387</v>
+        <v>-7.564389020801792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.706479554168085</v>
+        <v>-7.790801034363811</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.59538528794981</v>
+        <v>7.336269255778936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.155972104079575</v>
+        <v>4.969938549109353</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.61101309345779</v>
+        <v>2.245983758656035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.751848047725622</v>
+        <v>9.900973384941498</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.101637541406333</v>
+        <v>-0.7043694550690727</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3936803115513507</v>
+        <v>0.5087782743065149</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.056381374117306</v>
+        <v>6.84203597266461</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1245467347698991</v>
+        <v>0.1654860815250499</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.1130986787976768</v>
+        <v>-0.564096490887413</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.02312951922443704</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.07961500362623408</v>
+        <v>-0.07961500362623396</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.08165828509172345</v>
@@ -1197,7 +1197,7 @@
         <v>-0.06992706051092908</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07947340191310887</v>
+        <v>-0.07947340191310864</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07217429942369116</v>
+        <v>-0.07990577526489345</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1420614284330956</v>
+        <v>-0.1385502709715152</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1912602898065295</v>
+        <v>-0.1877117724219271</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.007935139547459103</v>
+        <v>-0.01391867324969467</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1991372392727534</v>
+        <v>-0.1968863040299273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1606687355916046</v>
+        <v>-0.1692452280539053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01201135104819136</v>
+        <v>-0.01704941347287829</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.147859365139876</v>
+        <v>-0.1476456605777937</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1483808938637291</v>
+        <v>-0.1517382832890868</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1896506771431162</v>
+        <v>0.1790951098565963</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1045471126202745</v>
+        <v>0.1233988630282809</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06293707759713944</v>
+        <v>0.05555270045671941</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1893742522670501</v>
+        <v>0.1903989433363067</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.02067456977182883</v>
+        <v>-0.01419675195811889</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01093758549151656</v>
+        <v>0.01050236713316163</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1484959237329855</v>
+        <v>0.1453644600657575</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.002700039525323425</v>
+        <v>0.003369707236808219</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.001696321177784165</v>
+        <v>-0.01148466984666779</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>7.158665420094746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.413094894904737</v>
+        <v>-1.413094894904726</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.509466910017615</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.166471458378335</v>
+        <v>1.10448100654612</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.54085016754895</v>
+        <v>2.643437550461906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.099540027750269</v>
+        <v>-6.031892915464654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.139756730127524</v>
+        <v>4.020736660485363</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.411100836400665</v>
+        <v>-1.569577713979871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.124611551979124</v>
+        <v>-5.163950628859904</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.051597138917997</v>
+        <v>4.101852346310449</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.026716444661756</v>
+        <v>2.385659014487203</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.158865938049121</v>
+        <v>-4.049925332212974</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.54960444522363</v>
+        <v>10.54975369776515</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.84295605177124</v>
+        <v>11.93898885475996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.325268797149735</v>
+        <v>3.478549110615848</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.73679009008332</v>
+        <v>12.76532597400222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.966745067552951</v>
+        <v>7.305079060877475</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.533017204340859</v>
+        <v>2.924463672891515</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.20414018483874</v>
+        <v>10.38759875618123</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.070184084643705</v>
+        <v>8.487133643445938</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.018058160425611</v>
+        <v>2.018706034053544</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1527584709894356</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03015397463648579</v>
+        <v>-0.03015397463648555</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1520858636371706</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02423367202811058</v>
+        <v>0.02326712315880286</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04956444564490815</v>
+        <v>0.0549104747085573</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1248057246791654</v>
+        <v>-0.123555519715697</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07146265904439696</v>
+        <v>0.07008868573853594</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02415429810214945</v>
+        <v>-0.02712859043232392</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08810598478303229</v>
+        <v>-0.08862425367703651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07510885963304569</v>
+        <v>0.07583957880591578</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03938191193050991</v>
+        <v>0.0435710899056326</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07762290316029891</v>
+        <v>-0.07605477796063141</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2367498160009236</v>
+        <v>0.2401869562954866</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2640645087901722</v>
+        <v>0.2709699513868493</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07489820810649442</v>
+        <v>0.07923181239216159</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2385866600219925</v>
+        <v>0.2379244597314814</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1298003369844424</v>
+        <v>0.1346795216156713</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06694204771025138</v>
+        <v>0.05473561276678337</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2027525283907232</v>
+        <v>0.2066371588639536</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1625954797900771</v>
+        <v>0.1687784057471892</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.04197188357860351</v>
+        <v>0.04083274282953794</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.931789007314219</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.372232436003412</v>
+        <v>-1.372232436003407</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.682874370305282</v>
@@ -1511,7 +1511,7 @@
         <v>0.6593992298668083</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.417803274513576</v>
+        <v>-3.417803274513587</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.769180299209459</v>
@@ -1520,7 +1520,7 @@
         <v>2.783455742752722</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.35591841404782</v>
+        <v>-2.355918414047831</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.393542928941604</v>
+        <v>3.243853663615553</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.354412734592538</v>
+        <v>2.249278540550085</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.873200970518039</v>
+        <v>-4.034058151523818</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.343015544701932</v>
+        <v>5.038262218121553</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.742079829286096</v>
+        <v>-1.798007001659801</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.557024096861152</v>
+        <v>-5.763844419599288</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.189281836134108</v>
+        <v>4.853167015507185</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.069404606946655</v>
+        <v>1.0620604256468</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.983969515362292</v>
+        <v>-4.088500827011253</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.368586662563738</v>
+        <v>8.25446542520357</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.240612841349782</v>
+        <v>7.569689323778047</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.277896619513845</v>
+        <v>1.041212660049607</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.00645723220347</v>
+        <v>9.829208626868335</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.062185974607208</v>
+        <v>3.043560835544697</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.019273019178776</v>
+        <v>-1.215055027764649</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.567321285073332</v>
+        <v>8.465951839468079</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.486443110744377</v>
+        <v>4.420362916540673</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.5705277069228156</v>
+        <v>-0.6789590881061048</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1141097080022015</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.03175015037165449</v>
+        <v>-0.03175015037165436</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1417989937389354</v>
@@ -1616,7 +1616,7 @@
         <v>0.01217020385348655</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.06308069633376109</v>
+        <v>-0.06308069633376129</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.138755039348657</v>
@@ -1625,7 +1625,7 @@
         <v>0.05705543271701655</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04829174845314838</v>
+        <v>-0.0482917484531486</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07613751812564008</v>
+        <v>0.07295966032663102</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05279912480423706</v>
+        <v>0.05266013406212407</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08705487124440389</v>
+        <v>-0.09014781411707694</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0956834271600193</v>
+        <v>0.09223506891850687</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03140433807478311</v>
+        <v>-0.03250050049580968</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09967815284164495</v>
+        <v>-0.1039041523359927</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1035586485530987</v>
+        <v>0.09721592682494308</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02129185793355627</v>
+        <v>0.0214095445073367</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.08047245448710827</v>
+        <v>-0.08214594649942632</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2002732138133771</v>
+        <v>0.1978086415154598</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1727045489398356</v>
+        <v>0.1819216921893624</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02980697251237479</v>
+        <v>0.02455072309994901</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1884509485162489</v>
+        <v>0.1861291739283825</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05886728031446115</v>
+        <v>0.05766626863939101</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01872486503729573</v>
+        <v>-0.02268589918864401</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1776308122811889</v>
+        <v>0.1752555504039981</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09299372593634614</v>
+        <v>0.09197506120007702</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.01193480924939867</v>
+        <v>-0.01424060189831119</v>
       </c>
     </row>
     <row r="34">
